--- a/trading_strategy_results002780241005.xlsx
+++ b/trading_strategy_results002780241005.xlsx
@@ -478,19 +478,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01269226769999821</v>
+        <v>-0.9998085890999242</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>464</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -501,19 +501,19 @@
         <v>0.001</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01018958880000076</v>
+        <v>-0.9994195007760142</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>772</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +524,19 @@
         <v>0.002</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0008632014000005128</v>
+        <v>-0.9992786988532907</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>860</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>442</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +547,19 @@
         <v>0.003</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006240273000001073</v>
+        <v>-0.9998352760506197</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>452</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6">
@@ -570,19 +570,19 @@
         <v>0.004</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01164536850000109</v>
+        <v>-0.9997327122538975</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>933</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01269226769999821</v>
+        <v>-0.9997656332999401</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
@@ -616,19 +616,19 @@
         <v>0.001</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01018958880000076</v>
+        <v>-0.9999523081326197</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>712</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +639,19 @@
         <v>0.002</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0008632014000005128</v>
+        <v>-0.9990101176847124</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>795</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10">
@@ -662,19 +662,19 @@
         <v>0.003</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006240273000001073</v>
+        <v>-0.9990943831125096</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>436</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11">
@@ -685,19 +685,19 @@
         <v>0.004</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01164536850000109</v>
+        <v>-0.9993218833535007</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>884</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>464</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03895495739999821</v>
+        <v>-0.9995938268999509</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
@@ -731,19 +731,19 @@
         <v>0.001</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0173990123999993</v>
+        <v>-0.9993672974886145</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>646</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14">
@@ -754,19 +754,19 @@
         <v>0.002</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02768855849999963</v>
+        <v>-0.999352147555115</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>748</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15">
@@ -777,19 +777,19 @@
         <v>0.003</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02341859369999855</v>
+        <v>-0.9995569486215156</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>793</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16">
@@ -800,19 +800,19 @@
         <v>0.004</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0191486288999988</v>
+        <v>-0.9998690055742983</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>837</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03895495739999821</v>
+        <v>-0.9998085926999462</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>466</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
@@ -846,19 +846,19 @@
         <v>0.001</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0173990123999993</v>
+        <v>-0.9994247678358107</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>571</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19">
@@ -869,19 +869,19 @@
         <v>0.002</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02768855849999963</v>
+        <v>-0.9997339935929153</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>669</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>334</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +892,19 @@
         <v>0.003</v>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02341859369999855</v>
+        <v>-0.9995043133023018</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>724</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
@@ -915,19 +915,19 @@
         <v>0.004</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0191486288999988</v>
+        <v>-0.9990623307694979</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>766</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>401</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22">
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01548814859999859</v>
+        <v>0.1168276254001113</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>1006</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>502</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23">
@@ -961,19 +961,19 @@
         <v>0.001</v>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005220430200000292</v>
+        <v>-0.9995425747407143</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +984,19 @@
         <v>0.002</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.006265891499999454</v>
+        <v>-0.9994622517953244</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25">
@@ -1007,19 +1007,19 @@
         <v>0.003</v>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003036070499998433</v>
+        <v>-0.9997214479290031</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>652</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26">
@@ -1030,19 +1030,19 @@
         <v>0.004</v>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>2133</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001817019000007747</v>
+        <v>-0.9993564563975026</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>690</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>344</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
